--- a/biology/Zoologie/Astartidae/Astartidae.xlsx
+++ b/biology/Zoologie/Astartidae/Astartidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astartidae, astartes en français, sont une famille de mollusques bivalves. On retrouve 8 espèces d'astartes présentes dans les eaux froides et tempérées de l'océan Atlantique Nord.
 Elles possèdent des coquilles épaisses, de taille variant de 1 à 6 cm selon les espèces et avec une forme variant de celle d'un œuf à triangulaire. Leurs coquilles sont relativement lisses, pourvues de sillons plus ou moins profonds, et d'un ligament externe.
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve les astartes à des profondeurs variant de 9 m à plus de 750 m sur des fonds meubles (vase, sable, argile) où l'on retrouve un peu de gravier ou de fragments de coquilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve les astartes à des profondeurs variant de 9 m à plus de 750 m sur des fonds meubles (vase, sable, argile) où l'on retrouve un peu de gravier ou de fragments de coquilles.
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 juin 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 juin 2016) :
 Astarte J. Sowerby, 1816
 Digitaria S. V. Wood, 1853
 Eriphyla Gabb, 1864
 Gonilia Stoliczka, 1871
 Goodallia Turton, 1822
-Selon ITIS      (1 juin 2016)[3] :
+Selon ITIS      (1 juin 2016) :
 Astarte J. Sowerby, 1816
 Digitaria S. V. Wood, 1853
 Goodallia Turton, 1822</t>
